--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O2" t="n">
         <v>3500</v>
       </c>
-      <c r="O2" t="n">
-        <v>4000</v>
-      </c>
       <c r="P2" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1875</v>
+        <v>1625</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="O3" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44195</v>
+        <v>44216</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,13 +687,13 @@
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O4" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P4" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1625</v>
+        <v>1875</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44195</v>
+        <v>44216</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -767,13 +767,13 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="P5" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44195</v>
+        <v>44216</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O2" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P2" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1625</v>
+        <v>1875</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44195</v>
+        <v>44216</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="O3" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="P3" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,13 +687,13 @@
         <v>200</v>
       </c>
       <c r="N4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O4" t="n">
         <v>3500</v>
       </c>
-      <c r="O4" t="n">
-        <v>4000</v>
-      </c>
       <c r="P4" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1875</v>
+        <v>1625</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -767,13 +767,13 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="O5" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44195</v>
+        <v>44532</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>3250</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1625</v>
+        <v>5000</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44195</v>
+        <v>44532</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="O3" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="P3" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1250</v>
+        <v>4000</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,13 +687,13 @@
         <v>200</v>
       </c>
       <c r="N4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O4" t="n">
         <v>3500</v>
       </c>
-      <c r="O4" t="n">
-        <v>4000</v>
-      </c>
       <c r="P4" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1875</v>
+        <v>1625</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -767,28 +767,188 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>1250</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>44216</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>200</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3750</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>1875</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44216</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>100</v>
+      </c>
+      <c r="N7" t="n">
         <v>3000</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O7" t="n">
         <v>3000</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P7" t="n">
         <v>3000</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Región de Ñuble</t>
         </is>
       </c>
-      <c r="S5" t="n">
+      <c r="S7" t="n">
         <v>1500</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T7" t="n">
         <v>2</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44532</v>
+        <v>44216</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>3750</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>5000</v>
+        <v>1875</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44532</v>
+        <v>44216</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O3" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P3" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44195</v>
+        <v>44532</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>3250</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1625</v>
+        <v>5000</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44195</v>
+        <v>44532</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -767,13 +767,13 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="O5" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="P5" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1250</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -847,13 +847,13 @@
         <v>200</v>
       </c>
       <c r="N6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O6" t="n">
         <v>3500</v>
       </c>
-      <c r="O6" t="n">
-        <v>4000</v>
-      </c>
       <c r="P6" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1875</v>
+        <v>1625</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -927,13 +927,13 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="O7" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="P7" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44195</v>
+        <v>44559</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -847,26 +847,26 @@
         <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O6" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
         <v>3250</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v>1625</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44195</v>
+        <v>44559</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -927,28 +927,188 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
         <v>2500</v>
       </c>
-      <c r="O7" t="n">
+      <c r="T7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>44195</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>200</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3250</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>1625</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44195</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>100</v>
+      </c>
+      <c r="N9" t="n">
         <v>2500</v>
       </c>
-      <c r="P7" t="n">
+      <c r="O9" t="n">
         <v>2500</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="P9" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>Región de Ñuble</t>
         </is>
       </c>
-      <c r="S7" t="n">
+      <c r="S9" t="n">
         <v>1250</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T9" t="n">
         <v>2</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44216</v>
+        <v>44559</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O2" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P2" t="n">
-        <v>3750</v>
+        <v>6500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1875</v>
+        <v>3250</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44216</v>
+        <v>44559</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O3" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44532</v>
+        <v>44195</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>3250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>5000</v>
+        <v>1625</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44532</v>
+        <v>44195</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -767,13 +767,13 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="P5" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>1250</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44559</v>
+        <v>44216</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -847,13 +847,13 @@
         <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P6" t="n">
-        <v>6500</v>
+        <v>3750</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3250</v>
+        <v>1875</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44559</v>
+        <v>44216</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -927,13 +927,13 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O7" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44195</v>
+        <v>44532</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>3250</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1625</v>
+        <v>5000</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44195</v>
+        <v>44532</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="O9" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="P9" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1250</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44216</v>
+        <v>44574</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -847,26 +847,26 @@
         <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P6" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
         <v>3750</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v>1875</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44216</v>
+        <v>44574</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -927,26 +927,26 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
         <v>3000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>1500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44532</v>
+        <v>44216</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>3750</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>5000</v>
+        <v>1875</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44532</v>
+        <v>44216</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1087,28 +1087,188 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>100</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>100</v>
+      </c>
+      <c r="N11" t="n">
         <v>8000</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O11" t="n">
         <v>8000</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P11" t="n">
         <v>8000</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Región de Ñuble</t>
         </is>
       </c>
-      <c r="S9" t="n">
+      <c r="S11" t="n">
         <v>4000</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T11" t="n">
         <v>2</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44559</v>
+        <v>44216</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P2" t="n">
-        <v>6500</v>
+        <v>3750</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3250</v>
+        <v>1875</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44559</v>
+        <v>44216</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O3" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P3" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44574</v>
+        <v>44559</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -847,13 +847,13 @@
         <v>200</v>
       </c>
       <c r="N6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O6" t="n">
         <v>7000</v>
       </c>
-      <c r="O6" t="n">
-        <v>8000</v>
-      </c>
       <c r="P6" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44574</v>
+        <v>44559</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -927,13 +927,13 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O7" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P7" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44216</v>
+        <v>44574</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1007,26 +1007,26 @@
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P8" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
         <v>3750</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>1875</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44216</v>
+        <v>44574</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1087,26 +1087,26 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
         <v>3000</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3000</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3000</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>1500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44216</v>
+        <v>44559</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O2" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P2" t="n">
-        <v>3750</v>
+        <v>6500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1875</v>
+        <v>3250</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44216</v>
+        <v>44559</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O3" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44195</v>
+        <v>44216</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,13 +687,13 @@
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O4" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P4" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1625</v>
+        <v>1875</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44195</v>
+        <v>44216</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -767,13 +767,13 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="P5" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44559</v>
+        <v>44532</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3250</v>
+        <v>5000</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44559</v>
+        <v>44532</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -927,13 +927,13 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O7" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44532</v>
+        <v>44195</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O10" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="P10" t="n">
-        <v>10000</v>
+        <v>3250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>5000</v>
+        <v>1625</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44532</v>
+        <v>44195</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1247,13 +1247,13 @@
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="O11" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="P11" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4000</v>
+        <v>1250</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44559</v>
+        <v>44602</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44559</v>
+        <v>44602</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44216</v>
+        <v>44559</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,13 +687,13 @@
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O4" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>3750</v>
+        <v>6500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1875</v>
+        <v>3250</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44216</v>
+        <v>44559</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -767,13 +767,13 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O5" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44532</v>
+        <v>44216</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>3750</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>5000</v>
+        <v>1875</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44532</v>
+        <v>44216</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -927,13 +927,13 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P7" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44574</v>
+        <v>44532</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44574</v>
+        <v>44532</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O9" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P9" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44195</v>
+        <v>44574</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1167,13 +1167,13 @@
         <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O10" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P10" t="n">
-        <v>3250</v>
+        <v>7500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1625</v>
+        <v>3750</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44195</v>
+        <v>44574</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1247,28 +1247,188 @@
         <v>100</v>
       </c>
       <c r="N11" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>3000</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44195</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>200</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3250</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>1625</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44195</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>100</v>
+      </c>
+      <c r="N13" t="n">
         <v>2500</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O13" t="n">
         <v>2500</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P13" t="n">
         <v>2500</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>Región de Ñuble</t>
         </is>
       </c>
-      <c r="S11" t="n">
+      <c r="S13" t="n">
         <v>1250</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T13" t="n">
         <v>2</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44195</v>
+        <v>44609</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O12" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P12" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1625</v>
+        <v>3375</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44195</v>
+        <v>44609</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1404,31 +1404,191 @@
         </is>
       </c>
       <c r="M13" t="n">
+        <v>50</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>3000</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44195</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>200</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3250</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>1625</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44195</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>100</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N15" t="n">
         <v>2500</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O15" t="n">
         <v>2500</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P15" t="n">
         <v>2500</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>Región de Ñuble</t>
         </is>
       </c>
-      <c r="S13" t="n">
+      <c r="S15" t="n">
         <v>1250</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T15" t="n">
         <v>2</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1592,6 +1592,86 @@
         <v>2</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44617</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>200</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O16" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>3250</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44602</v>
+        <v>44195</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="P2" t="n">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3250</v>
+        <v>1625</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44602</v>
+        <v>44195</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="O3" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="P3" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44559</v>
+        <v>44617</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44559</v>
+        <v>44609</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O5" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2500</v>
+        <v>3375</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44216</v>
+        <v>44609</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O6" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P6" t="n">
-        <v>3750</v>
+        <v>6000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1875</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44216</v>
+        <v>44574</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1500</v>
+        <v>3750</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44532</v>
+        <v>44574</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44532</v>
+        <v>44216</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O9" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>8000</v>
+        <v>3750</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4000</v>
+        <v>1875</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44574</v>
+        <v>44216</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O10" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P10" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3750</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44574</v>
+        <v>44602</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
         <v>6000</v>
       </c>
       <c r="O11" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P11" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44609</v>
+        <v>44602</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="O12" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P12" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3375</v>
+        <v>2500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44609</v>
+        <v>44532</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O13" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P13" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44195</v>
+        <v>44532</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O14" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P14" t="n">
-        <v>3250</v>
+        <v>8000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1625</v>
+        <v>4000</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44195</v>
+        <v>44559</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O15" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="P15" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1250</v>
+        <v>3250</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44617</v>
+        <v>44559</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O16" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P16" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44195</v>
+        <v>44617</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,26 +527,26 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O2" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P2" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
         <v>3250</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v>1625</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44195</v>
+        <v>44574</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="P3" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1250</v>
+        <v>3750</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44617</v>
+        <v>44574</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>6000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P4" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44609</v>
+        <v>44532</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -767,13 +767,13 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="O5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P5" t="n">
-        <v>6750</v>
+        <v>10000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3375</v>
+        <v>5000</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44609</v>
+        <v>44532</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O6" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P6" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44574</v>
+        <v>44559</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -927,13 +927,13 @@
         <v>200</v>
       </c>
       <c r="N7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O7" t="n">
         <v>7000</v>
       </c>
-      <c r="O7" t="n">
-        <v>8000</v>
-      </c>
       <c r="P7" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44574</v>
+        <v>44559</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1007,13 +1007,13 @@
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O8" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P8" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44602</v>
+        <v>44195</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1247,13 +1247,13 @@
         <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O11" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="P11" t="n">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3250</v>
+        <v>1625</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44602</v>
+        <v>44195</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1327,13 +1327,13 @@
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="O12" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44532</v>
+        <v>44602</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O13" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P13" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>5000</v>
+        <v>3250</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44532</v>
+        <v>44602</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1487,13 +1487,13 @@
         <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O14" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P14" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44559</v>
+        <v>44609</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O15" t="n">
         <v>7000</v>
       </c>
       <c r="P15" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3250</v>
+        <v>3375</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44559</v>
+        <v>44609</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O16" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P16" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44617</v>
+        <v>44602</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44574</v>
+        <v>44602</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O3" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P3" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44574</v>
+        <v>44617</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
         <v>6000</v>
       </c>
       <c r="O4" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44532</v>
+        <v>44195</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>3250</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>5000</v>
+        <v>1625</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44532</v>
+        <v>44195</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -847,13 +847,13 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="O6" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="P6" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>1250</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44559</v>
+        <v>44532</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3250</v>
+        <v>5000</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44559</v>
+        <v>44532</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1007,13 +1007,13 @@
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O8" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P8" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44216</v>
+        <v>44609</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="O9" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1875</v>
+        <v>3375</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44216</v>
+        <v>44609</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1164,29 +1164,29 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
         <v>3000</v>
-      </c>
-      <c r="O10" t="n">
-        <v>3000</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3000</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44195</v>
+        <v>44216</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1247,13 +1247,13 @@
         <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O11" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P11" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1625</v>
+        <v>1875</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44195</v>
+        <v>44216</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1327,13 +1327,13 @@
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="O12" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="P12" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44602</v>
+        <v>44574</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1407,13 +1407,13 @@
         <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O13" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P13" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44602</v>
+        <v>44574</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1487,13 +1487,13 @@
         <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O14" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P14" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44609</v>
+        <v>44559</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="O15" t="n">
         <v>7000</v>
       </c>
       <c r="P15" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3375</v>
+        <v>3250</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44609</v>
+        <v>44559</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O16" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P16" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44602</v>
+        <v>44216</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P2" t="n">
-        <v>6500</v>
+        <v>3750</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3250</v>
+        <v>1875</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44602</v>
+        <v>44216</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O3" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P3" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44617</v>
+        <v>44574</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,13 +687,13 @@
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P4" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44195</v>
+        <v>44574</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,33 +760,33 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
         <v>3000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3500</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3250</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v>1625</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44195</v>
+        <v>44559</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O6" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1250</v>
+        <v>3250</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44532</v>
+        <v>44559</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44532</v>
+        <v>44602</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O8" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4000</v>
+        <v>3250</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44609</v>
+        <v>44602</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="O9" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P9" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3375</v>
+        <v>2500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44609</v>
+        <v>44195</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O10" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P10" t="n">
-        <v>6000</v>
+        <v>3250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3000</v>
+        <v>1625</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="O11" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="P11" t="n">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1875</v>
+        <v>1250</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44216</v>
+        <v>44609</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O12" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>6750</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1500</v>
+        <v>3375</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44574</v>
+        <v>44609</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O13" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P13" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44574</v>
+        <v>44532</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O14" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P14" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44559</v>
+        <v>44532</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O15" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P15" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44559</v>
+        <v>44617</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O16" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P16" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44216</v>
+        <v>44574</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,26 +527,26 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P2" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
         <v>3750</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v>1875</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44216</v>
+        <v>44574</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,26 +607,26 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
         <v>3000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3000</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3000</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44574</v>
+        <v>44216</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,13 +687,13 @@
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O4" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P4" t="n">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3750</v>
+        <v>1875</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44574</v>
+        <v>44216</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -767,13 +767,13 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="P5" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44559</v>
+        <v>44195</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -847,13 +847,13 @@
         <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="P6" t="n">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3250</v>
+        <v>1625</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44559</v>
+        <v>44195</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -927,13 +927,13 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="O7" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44602</v>
+        <v>44559</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44602</v>
+        <v>44559</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44195</v>
+        <v>44617</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1167,26 +1167,26 @@
         <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O10" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P10" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
         <v>3250</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>1625</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44195</v>
+        <v>44532</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="O11" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="P11" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1250</v>
+        <v>5000</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44609</v>
+        <v>44532</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O12" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P12" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3375</v>
+        <v>4000</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O13" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P13" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>3375</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44532</v>
+        <v>44609</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O14" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P14" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44532</v>
+        <v>44602</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O15" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P15" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>4000</v>
+        <v>3250</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44617</v>
+        <v>44602</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O16" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P16" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44574</v>
+        <v>44559</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O2" t="n">
         <v>7000</v>
       </c>
-      <c r="O2" t="n">
-        <v>8000</v>
-      </c>
       <c r="P2" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44574</v>
+        <v>44559</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O3" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P3" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44216</v>
+        <v>44532</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>3750</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1875</v>
+        <v>5000</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44216</v>
+        <v>44532</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -767,13 +767,13 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O5" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44195</v>
+        <v>44602</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -847,26 +847,26 @@
         <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O6" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
         <v>3250</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v>1625</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44195</v>
+        <v>44602</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -927,26 +927,26 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
         <v>2500</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2500</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2500</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>1250</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44559</v>
+        <v>44216</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1007,13 +1007,13 @@
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P8" t="n">
-        <v>6500</v>
+        <v>3750</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3250</v>
+        <v>1875</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44559</v>
+        <v>44216</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O9" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44617</v>
+        <v>44574</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1167,13 +1167,13 @@
         <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O10" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P10" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44532</v>
+        <v>44574</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O11" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P11" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44532</v>
+        <v>44195</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O12" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="P12" t="n">
-        <v>8000</v>
+        <v>3250</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4000</v>
+        <v>1625</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44609</v>
+        <v>44195</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="O13" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="P13" t="n">
-        <v>6750</v>
+        <v>2500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3375</v>
+        <v>1250</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O14" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P14" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3000</v>
+        <v>3375</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44602</v>
+        <v>44609</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
         <v>6000</v>
       </c>
       <c r="O15" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P15" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44602</v>
+        <v>44617</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O16" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P16" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44559</v>
+        <v>44609</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O2" t="n">
         <v>7000</v>
       </c>
       <c r="P2" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3250</v>
+        <v>3375</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44559</v>
+        <v>44609</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O3" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P3" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44602</v>
+        <v>44574</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -847,13 +847,13 @@
         <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P6" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44602</v>
+        <v>44574</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -927,13 +927,13 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O7" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44216</v>
+        <v>44617</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1007,13 +1007,13 @@
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O8" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>3750</v>
+        <v>6500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1875</v>
+        <v>3250</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44216</v>
+        <v>44559</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O9" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>3250</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44574</v>
+        <v>44559</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O10" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P10" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44574</v>
+        <v>44195</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O11" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P11" t="n">
-        <v>6000</v>
+        <v>3250</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>1625</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="O12" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="P12" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1625</v>
+        <v>1250</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44195</v>
+        <v>44216</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="O13" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="P13" t="n">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1250</v>
+        <v>1875</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44609</v>
+        <v>44216</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O14" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="P14" t="n">
-        <v>6750</v>
+        <v>3000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3375</v>
+        <v>1500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44609</v>
+        <v>44602</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
         <v>6000</v>
       </c>
       <c r="O15" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P15" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44617</v>
+        <v>44602</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O16" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P16" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44609</v>
+        <v>44574</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3375</v>
+        <v>3750</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44609</v>
+        <v>44574</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>6000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44532</v>
+        <v>44216</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>3750</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>5000</v>
+        <v>1875</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44532</v>
+        <v>44216</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -767,13 +767,13 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P5" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44574</v>
+        <v>44602</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -847,13 +847,13 @@
         <v>200</v>
       </c>
       <c r="N6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O6" t="n">
         <v>7000</v>
       </c>
-      <c r="O6" t="n">
-        <v>8000</v>
-      </c>
       <c r="P6" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44574</v>
+        <v>44602</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -927,13 +927,13 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O7" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P7" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44617</v>
+        <v>44532</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3250</v>
+        <v>5000</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44559</v>
+        <v>44532</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O9" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P9" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44559</v>
+        <v>44617</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O10" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P10" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44195</v>
+        <v>44559</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1247,26 +1247,26 @@
         <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O11" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P11" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
         <v>3250</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>1625</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44195</v>
+        <v>44559</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1327,26 +1327,26 @@
         <v>100</v>
       </c>
       <c r="N12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
         <v>2500</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2500</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2500</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v>1250</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44216</v>
+        <v>44609</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="O13" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P13" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1875</v>
+        <v>3375</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44216</v>
+        <v>44609</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1484,29 +1484,29 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
         <v>3000</v>
-      </c>
-      <c r="O14" t="n">
-        <v>3000</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3000</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v>1500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44602</v>
+        <v>44195</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1567,13 +1567,13 @@
         <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O15" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="P15" t="n">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3250</v>
+        <v>1625</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44602</v>
+        <v>44195</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1647,13 +1647,13 @@
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="O16" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="P16" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44532</v>
+        <v>44617</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>5000</v>
+        <v>3250</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44532</v>
+        <v>44195</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O9" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="P9" t="n">
-        <v>8000</v>
+        <v>3250</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4000</v>
+        <v>1625</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44617</v>
+        <v>44195</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="O10" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="P10" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3250</v>
+        <v>1250</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44559</v>
+        <v>44532</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P11" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3250</v>
+        <v>5000</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44559</v>
+        <v>44532</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1327,13 +1327,13 @@
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O12" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44195</v>
+        <v>44559</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1567,26 +1567,26 @@
         <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O15" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P15" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
         <v>3250</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
-        <v>1625</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44195</v>
+        <v>44559</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1647,26 +1647,26 @@
         <v>100</v>
       </c>
       <c r="N16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
         <v>2500</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2500</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2500</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
-        <v>1250</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44574</v>
+        <v>44617</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O2" t="n">
         <v>7000</v>
       </c>
-      <c r="O2" t="n">
-        <v>8000</v>
-      </c>
       <c r="P2" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P3" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44216</v>
+        <v>44574</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O4" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P4" t="n">
-        <v>3750</v>
+        <v>6000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1875</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44216</v>
+        <v>44559</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O5" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>3250</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44602</v>
+        <v>44559</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P6" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44602</v>
+        <v>44216</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O7" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>1875</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44617</v>
+        <v>44216</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="P8" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44195</v>
+        <v>44602</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1087,26 +1087,26 @@
         <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O9" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
         <v>3250</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>1625</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44195</v>
+        <v>44602</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1167,26 +1167,26 @@
         <v>100</v>
       </c>
       <c r="N10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
         <v>2500</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2500</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2500</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>1250</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44609</v>
+        <v>44195</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O13" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="P13" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3375</v>
+        <v>1625</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44609</v>
+        <v>44195</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="O14" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="P14" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44559</v>
+        <v>44609</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O15" t="n">
         <v>7000</v>
       </c>
       <c r="P15" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3250</v>
+        <v>3375</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44559</v>
+        <v>44609</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O16" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P16" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44574</v>
+        <v>44602</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>200</v>
       </c>
       <c r="N3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O3" t="n">
         <v>7000</v>
       </c>
-      <c r="O3" t="n">
-        <v>8000</v>
-      </c>
       <c r="P3" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44574</v>
+        <v>44602</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,13 +687,13 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O4" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P4" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -927,13 +927,13 @@
         <v>200</v>
       </c>
       <c r="N7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O7" t="n">
         <v>3500</v>
       </c>
-      <c r="O7" t="n">
-        <v>4000</v>
-      </c>
       <c r="P7" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1875</v>
+        <v>1625</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1007,13 +1007,13 @@
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="O8" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="P8" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44602</v>
+        <v>44574</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1087,13 +1087,13 @@
         <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P9" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44602</v>
+        <v>44574</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1167,13 +1167,13 @@
         <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O10" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P10" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44195</v>
+        <v>44216</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1407,13 +1407,13 @@
         <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O13" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P13" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1625</v>
+        <v>1875</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44195</v>
+        <v>44216</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1487,13 +1487,13 @@
         <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="O14" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="P14" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44617</v>
+        <v>44574</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44602</v>
+        <v>44574</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>6000</v>
       </c>
       <c r="O3" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P3" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44602</v>
+        <v>44559</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O4" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O5" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P5" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44559</v>
+        <v>44532</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -840,33 +840,33 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>100</v>
       </c>
       <c r="N6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
         <v>5000</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5000</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5000</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v>2500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44195</v>
+        <v>44532</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O7" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>3250</v>
+        <v>8000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1625</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44195</v>
+        <v>44617</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O8" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1250</v>
+        <v>3250</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44574</v>
+        <v>44602</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1087,13 +1087,13 @@
         <v>200</v>
       </c>
       <c r="N9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O9" t="n">
         <v>7000</v>
       </c>
-      <c r="O9" t="n">
-        <v>8000</v>
-      </c>
       <c r="P9" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44574</v>
+        <v>44602</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1167,13 +1167,13 @@
         <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O10" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P10" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44532</v>
+        <v>44609</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1247,13 +1247,13 @@
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="O11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P11" t="n">
-        <v>10000</v>
+        <v>6750</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>5000</v>
+        <v>3375</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44532</v>
+        <v>44609</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O12" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P12" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1407,13 +1407,13 @@
         <v>200</v>
       </c>
       <c r="N13" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O13" t="n">
         <v>3500</v>
       </c>
-      <c r="O13" t="n">
-        <v>4000</v>
-      </c>
       <c r="P13" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1875</v>
+        <v>1625</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1487,13 +1487,13 @@
         <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="O14" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="P14" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44609</v>
+        <v>44216</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="O15" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P15" t="n">
-        <v>6750</v>
+        <v>3750</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3375</v>
+        <v>1875</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44609</v>
+        <v>44216</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O16" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="P16" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44559</v>
+        <v>44602</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44559</v>
+        <v>44602</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44532</v>
+        <v>44609</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -847,13 +847,13 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>6750</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>5000</v>
+        <v>3375</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44532</v>
+        <v>44609</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P7" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44617</v>
+        <v>44532</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3250</v>
+        <v>5000</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44602</v>
+        <v>44532</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O9" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P9" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44602</v>
+        <v>44195</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O10" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P10" t="n">
-        <v>5000</v>
+        <v>3250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2500</v>
+        <v>1625</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44609</v>
+        <v>44195</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="O11" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="P11" t="n">
-        <v>6750</v>
+        <v>2500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3375</v>
+        <v>1250</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44609</v>
+        <v>44617</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
         <v>6000</v>
       </c>
       <c r="O12" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P12" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44195</v>
+        <v>44559</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1407,26 +1407,26 @@
         <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O13" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P13" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
         <v>3250</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v>1625</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44195</v>
+        <v>44559</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1487,26 +1487,26 @@
         <v>100</v>
       </c>
       <c r="N14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
         <v>2500</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2500</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2500</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v>1250</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44574</v>
+        <v>44559</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O2" t="n">
         <v>7000</v>
       </c>
-      <c r="O2" t="n">
-        <v>8000</v>
-      </c>
       <c r="P2" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44574</v>
+        <v>44559</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O3" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P3" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44602</v>
+        <v>44216</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,13 +687,13 @@
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P4" t="n">
-        <v>6500</v>
+        <v>3750</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3250</v>
+        <v>1875</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44602</v>
+        <v>44216</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -767,13 +767,13 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P5" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44609</v>
+        <v>44574</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P6" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3375</v>
+        <v>3750</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44609</v>
+        <v>44574</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
         <v>6000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44532</v>
+        <v>44602</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>5000</v>
+        <v>3250</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44532</v>
+        <v>44602</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O9" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P9" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44195</v>
+        <v>44617</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1167,26 +1167,26 @@
         <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O10" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P10" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
         <v>3250</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>1625</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44195</v>
+        <v>44532</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="O11" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="P11" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1250</v>
+        <v>5000</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44617</v>
+        <v>44532</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O12" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P12" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44559</v>
+        <v>44609</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O13" t="n">
         <v>7000</v>
       </c>
       <c r="P13" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3250</v>
+        <v>3375</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44559</v>
+        <v>44609</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O14" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P14" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1567,13 +1567,13 @@
         <v>200</v>
       </c>
       <c r="N15" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O15" t="n">
         <v>3500</v>
       </c>
-      <c r="O15" t="n">
-        <v>4000</v>
-      </c>
       <c r="P15" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1875</v>
+        <v>1625</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1647,13 +1647,13 @@
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="O16" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="P16" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44559</v>
+        <v>44617</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44559</v>
+        <v>44532</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -600,33 +600,33 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>100</v>
       </c>
       <c r="N3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
         <v>5000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v>2500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44216</v>
+        <v>44532</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -680,33 +680,33 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
         <v>4000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3750</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>1875</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44216</v>
+        <v>44574</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>3750</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O6" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P6" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44574</v>
+        <v>44216</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O7" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P7" t="n">
-        <v>6000</v>
+        <v>3750</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>1875</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44602</v>
+        <v>44216</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="P8" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44602</v>
+        <v>44195</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O9" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>3250</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2500</v>
+        <v>1625</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44617</v>
+        <v>44195</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="O10" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="P10" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3250</v>
+        <v>1250</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44532</v>
+        <v>44559</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P11" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>5000</v>
+        <v>3250</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44532</v>
+        <v>44559</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1327,13 +1327,13 @@
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O12" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P12" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44609</v>
+        <v>44602</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="O13" t="n">
         <v>7000</v>
       </c>
       <c r="P13" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3375</v>
+        <v>3250</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44609</v>
+        <v>44602</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O14" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P14" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44195</v>
+        <v>44609</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O15" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P15" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1625</v>
+        <v>3375</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44195</v>
+        <v>44609</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O16" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="P16" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1250</v>
+        <v>3000</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44617</v>
+        <v>44574</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44532</v>
+        <v>44574</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44532</v>
+        <v>44195</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O4" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="P4" t="n">
-        <v>8000</v>
+        <v>3250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>1625</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44574</v>
+        <v>44195</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="P5" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3750</v>
+        <v>1250</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44574</v>
+        <v>44602</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
         <v>6000</v>
       </c>
       <c r="O6" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44216</v>
+        <v>44602</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O7" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P7" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1875</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44216</v>
+        <v>44609</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O8" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>3000</v>
+        <v>6750</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1500</v>
+        <v>3375</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44195</v>
+        <v>44609</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,33 +1080,33 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
         <v>3000</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3500</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3250</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>1625</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44195</v>
+        <v>44532</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="O10" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="P10" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1250</v>
+        <v>5000</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44559</v>
+        <v>44532</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O11" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P11" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44559</v>
+        <v>44617</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O12" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44602</v>
+        <v>44559</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44602</v>
+        <v>44559</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44609</v>
+        <v>44216</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="O15" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P15" t="n">
-        <v>6750</v>
+        <v>3750</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3375</v>
+        <v>1875</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44609</v>
+        <v>44216</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O16" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="P16" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44574</v>
+        <v>44910</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O2" t="n">
         <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3750</v>
+        <v>3875</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P3" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44195</v>
+        <v>44574</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -680,33 +680,33 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
         <v>3000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3500</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3250</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>1625</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="P5" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1250</v>
+        <v>1625</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44602</v>
+        <v>44195</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="P6" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3250</v>
+        <v>1250</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O7" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44609</v>
+        <v>44602</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P8" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3375</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O9" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>3375</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44532</v>
+        <v>44609</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O10" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P10" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O11" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P11" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44617</v>
+        <v>44532</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O12" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P12" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44559</v>
+        <v>44617</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O14" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P14" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44216</v>
+        <v>44559</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O15" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P15" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1875</v>
+        <v>2500</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1640,35 +1640,115 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>200</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3750</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>1875</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44216</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="M17" t="n">
         <v>100</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N17" t="n">
         <v>3000</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O17" t="n">
         <v>3000</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P17" t="n">
         <v>3000</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>Región de Ñuble</t>
         </is>
       </c>
-      <c r="S16" t="n">
+      <c r="S17" t="n">
         <v>1500</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T17" t="n">
         <v>2</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44532</v>
+        <v>44917</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O11" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P11" t="n">
-        <v>10000</v>
+        <v>7250</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>5000</v>
+        <v>3625</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O12" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P12" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44617</v>
+        <v>44532</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O13" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P13" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44559</v>
+        <v>44617</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O15" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P15" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44216</v>
+        <v>44559</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O16" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P16" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1875</v>
+        <v>2500</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1720,35 +1720,115 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>200</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3750</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>1875</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44216</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="M18" t="n">
         <v>100</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N18" t="n">
         <v>3000</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O18" t="n">
         <v>3000</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P18" t="n">
         <v>3000</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>Región de Ñuble</t>
         </is>
       </c>
-      <c r="S17" t="n">
+      <c r="S18" t="n">
         <v>1500</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T18" t="n">
         <v>2</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44574</v>
+        <v>44617</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>200</v>
       </c>
       <c r="N3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O3" t="n">
         <v>7000</v>
       </c>
-      <c r="O3" t="n">
-        <v>8000</v>
-      </c>
       <c r="P3" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44574</v>
+        <v>44195</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O4" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P4" t="n">
-        <v>6000</v>
+        <v>3250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>1625</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="O5" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="P5" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1625</v>
+        <v>1250</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44195</v>
+        <v>44532</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1250</v>
+        <v>5000</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44602</v>
+        <v>44532</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44602</v>
+        <v>44216</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O8" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P8" t="n">
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2500</v>
+        <v>1875</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44609</v>
+        <v>44216</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O9" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="P9" t="n">
-        <v>6750</v>
+        <v>3000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3375</v>
+        <v>1500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44609</v>
+        <v>44917</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O10" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="P10" t="n">
-        <v>6000</v>
+        <v>7250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3000</v>
+        <v>3625</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44917</v>
+        <v>44609</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O11" t="n">
         <v>7000</v>
       </c>
-      <c r="O11" t="n">
-        <v>7500</v>
-      </c>
       <c r="P11" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3625</v>
+        <v>3375</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44532</v>
+        <v>44609</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O12" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P12" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44532</v>
+        <v>44559</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O13" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P13" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4000</v>
+        <v>3250</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44617</v>
+        <v>44559</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O14" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P14" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44559</v>
+        <v>44602</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44559</v>
+        <v>44602</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44216</v>
+        <v>44574</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1727,26 +1727,26 @@
         <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O17" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P17" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
         <v>3750</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
-        <v>1875</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44216</v>
+        <v>44574</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1807,26 +1807,26 @@
         <v>100</v>
       </c>
       <c r="N18" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O18" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
         <v>3000</v>
-      </c>
-      <c r="O18" t="n">
-        <v>3000</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3000</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
-        <v>1500</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44617</v>
+        <v>44574</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P3" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44195</v>
+        <v>44574</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -680,33 +680,33 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
         <v>3000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3500</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3250</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>1625</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="P5" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1250</v>
+        <v>1625</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44532</v>
+        <v>44195</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>5000</v>
+        <v>1250</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44532</v>
+        <v>44602</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>3250</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44216</v>
+        <v>44602</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O8" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P8" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1875</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44216</v>
+        <v>44609</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O9" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>3000</v>
+        <v>6750</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>3375</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44917</v>
+        <v>44609</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O10" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P10" t="n">
-        <v>7250</v>
+        <v>6000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3625</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44609</v>
+        <v>44917</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O11" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P11" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3375</v>
+        <v>3625</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44609</v>
+        <v>44532</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O12" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P12" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44559</v>
+        <v>44532</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O13" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P13" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44559</v>
+        <v>44617</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O14" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P14" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44602</v>
+        <v>44559</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44602</v>
+        <v>44559</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44574</v>
+        <v>44216</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1727,13 +1727,13 @@
         <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O17" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P17" t="n">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3750</v>
+        <v>1875</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44574</v>
+        <v>44216</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1807,13 +1807,13 @@
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O18" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="P18" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44216</v>
+        <v>44944</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1004,29 +1004,29 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P8" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
         <v>3750</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>1875</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>1875</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44917</v>
+        <v>44216</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O10" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="P10" t="n">
-        <v>7250</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3625</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44609</v>
+        <v>44917</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O11" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P11" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3375</v>
+        <v>3625</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O12" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P12" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3000</v>
+        <v>3375</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44559</v>
+        <v>44609</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
         <v>6000</v>
       </c>
       <c r="O13" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P13" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O14" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P14" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44602</v>
+        <v>44559</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O15" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P15" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O16" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P16" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44574</v>
+        <v>44602</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O17" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P17" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1800,35 +1800,115 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>200</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O18" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>3750</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44574</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="M19" t="n">
         <v>100</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N19" t="n">
         <v>6000</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O19" t="n">
         <v>6000</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P19" t="n">
         <v>6000</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>Región de Ñuble</t>
         </is>
       </c>
-      <c r="S18" t="n">
+      <c r="S19" t="n">
         <v>3000</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T19" t="n">
         <v>2</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44617</v>
+        <v>44216</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O3" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P3" t="n">
-        <v>6500</v>
+        <v>3750</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3250</v>
+        <v>1875</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44195</v>
+        <v>44216</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>3000</v>
       </c>
       <c r="O4" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="P4" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1625</v>
+        <v>1500</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44195</v>
+        <v>44574</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="P5" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1250</v>
+        <v>3750</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44532</v>
+        <v>44574</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44944</v>
+        <v>44532</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O8" t="n">
         <v>8000</v>
       </c>
       <c r="P8" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3750</v>
+        <v>4000</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1087,13 +1087,13 @@
         <v>200</v>
       </c>
       <c r="N9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O9" t="n">
         <v>3500</v>
       </c>
-      <c r="O9" t="n">
-        <v>4000</v>
-      </c>
       <c r="P9" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1875</v>
+        <v>1625</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1167,13 +1167,13 @@
         <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="O10" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44917</v>
+        <v>44617</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1247,13 +1247,13 @@
         <v>200</v>
       </c>
       <c r="N11" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O11" t="n">
         <v>7000</v>
       </c>
-      <c r="O11" t="n">
-        <v>7500</v>
-      </c>
       <c r="P11" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3625</v>
+        <v>3250</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44559</v>
+        <v>44917</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1487,13 +1487,13 @@
         <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O14" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P14" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3250</v>
+        <v>3625</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44559</v>
+        <v>44602</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O15" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P15" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O16" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P16" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44602</v>
+        <v>44559</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O17" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P17" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44574</v>
+        <v>44559</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O18" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P18" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44574</v>
+        <v>44944</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O19" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P19" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44910</v>
+        <v>44609</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="O2" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P2" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3875</v>
+        <v>3375</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44216</v>
+        <v>44609</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O3" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P3" t="n">
-        <v>3750</v>
+        <v>6000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1875</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O4" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P4" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1500</v>
+        <v>1875</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44574</v>
+        <v>44216</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P5" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3750</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44574</v>
+        <v>44559</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
         <v>6000</v>
       </c>
       <c r="O6" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44532</v>
+        <v>44559</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44532</v>
+        <v>44917</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P8" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4000</v>
+        <v>3625</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44617</v>
+        <v>44602</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44609</v>
+        <v>44602</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="O12" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P12" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3375</v>
+        <v>2500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44609</v>
+        <v>44617</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
         <v>6000</v>
       </c>
       <c r="O13" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P13" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44917</v>
+        <v>44574</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1490,11 +1490,11 @@
         <v>7000</v>
       </c>
       <c r="O14" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P14" t="n">
         <v>7500</v>
       </c>
-      <c r="P14" t="n">
-        <v>7250</v>
-      </c>
       <c r="Q14" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3625</v>
+        <v>3750</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44602</v>
+        <v>44574</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
         <v>6000</v>
       </c>
       <c r="O15" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P15" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44602</v>
+        <v>44944</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O16" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P16" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44559</v>
+        <v>44532</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O17" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P17" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3250</v>
+        <v>5000</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44559</v>
+        <v>44532</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1807,13 +1807,13 @@
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O18" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P18" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44944</v>
+        <v>44910</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O19" t="n">
         <v>8000</v>
       </c>
       <c r="P19" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3750</v>
+        <v>3875</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44944</v>
+        <v>44988</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O16" t="n">
         <v>7000</v>
       </c>
-      <c r="O16" t="n">
-        <v>8000</v>
-      </c>
       <c r="P16" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44532</v>
+        <v>44944</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1727,13 +1727,13 @@
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O17" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P17" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O18" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P18" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44910</v>
+        <v>44532</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1880,35 +1880,115 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O19" t="n">
         <v>8000</v>
       </c>
       <c r="P19" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>4000</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>11</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44910</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>200</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O20" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P20" t="n">
         <v>7750</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>Región de Ñuble</t>
         </is>
       </c>
-      <c r="S19" t="n">
+      <c r="S20" t="n">
         <v>3875</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T20" t="n">
         <v>2</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44609</v>
+        <v>44910</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3375</v>
+        <v>3875</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44609</v>
+        <v>44944</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P3" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44216</v>
+        <v>44917</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,13 +687,13 @@
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="P4" t="n">
-        <v>3750</v>
+        <v>7250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1875</v>
+        <v>3625</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44216</v>
+        <v>44988</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O5" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>3250</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44559</v>
+        <v>44602</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44559</v>
+        <v>44602</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44917</v>
+        <v>44195</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1007,13 +1007,13 @@
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O8" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="P8" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3625</v>
+        <v>1625</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="O9" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="P9" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1625</v>
+        <v>1250</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44195</v>
+        <v>44609</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="O10" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="P10" t="n">
-        <v>2500</v>
+        <v>6750</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1250</v>
+        <v>3375</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44602</v>
+        <v>44609</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
         <v>6000</v>
       </c>
       <c r="O11" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P11" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44602</v>
+        <v>44559</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O12" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44617</v>
+        <v>44559</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O13" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P13" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44574</v>
+        <v>44617</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1487,13 +1487,13 @@
         <v>200</v>
       </c>
       <c r="N14" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O14" t="n">
         <v>7000</v>
       </c>
-      <c r="O14" t="n">
-        <v>8000</v>
-      </c>
       <c r="P14" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O15" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P15" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44988</v>
+        <v>44574</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
         <v>6000</v>
       </c>
       <c r="O16" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P16" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44944</v>
+        <v>44216</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O17" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P17" t="n">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3750</v>
+        <v>1875</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44532</v>
+        <v>44216</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="P18" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O19" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P19" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44910</v>
+        <v>44532</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O20" t="n">
         <v>8000</v>
       </c>
       <c r="P20" t="n">
-        <v>7750</v>
+        <v>8000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3875</v>
+        <v>4000</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44910</v>
+        <v>44559</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O2" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P2" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3875</v>
+        <v>3250</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44944</v>
+        <v>44559</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O3" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P3" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44917</v>
+        <v>44216</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,13 +687,13 @@
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O4" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="P4" t="n">
-        <v>7250</v>
+        <v>3750</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3625</v>
+        <v>1875</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44988</v>
+        <v>44216</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="P5" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44602</v>
+        <v>44574</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -847,13 +847,13 @@
         <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P6" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44602</v>
+        <v>44574</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -927,13 +927,13 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O7" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44195</v>
+        <v>44617</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1007,26 +1007,26 @@
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O8" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
         <v>3250</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>1625</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44195</v>
+        <v>44917</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="P9" t="n">
-        <v>2500</v>
+        <v>7250</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1250</v>
+        <v>3625</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44609</v>
+        <v>44944</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1167,13 +1167,13 @@
         <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O10" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P10" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3375</v>
+        <v>3750</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O11" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P11" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>3375</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44559</v>
+        <v>44609</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
         <v>6000</v>
       </c>
       <c r="O12" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P12" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44559</v>
+        <v>44602</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O13" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P13" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44617</v>
+        <v>44602</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O14" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P14" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44574</v>
+        <v>44532</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O15" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P15" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44574</v>
+        <v>44532</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1647,13 +1647,13 @@
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O16" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P16" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1727,13 +1727,13 @@
         <v>200</v>
       </c>
       <c r="N17" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O17" t="n">
         <v>3500</v>
       </c>
-      <c r="O17" t="n">
-        <v>4000</v>
-      </c>
       <c r="P17" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1875</v>
+        <v>1625</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1807,13 +1807,13 @@
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="O18" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="P18" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44532</v>
+        <v>44910</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="O19" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P19" t="n">
-        <v>10000</v>
+        <v>7750</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>5000</v>
+        <v>3875</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44532</v>
+        <v>44988</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O20" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P20" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>4000</v>
+        <v>3250</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44944</v>
+        <v>45014</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1170,10 +1170,10 @@
         <v>7000</v>
       </c>
       <c r="O10" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P10" t="n">
-        <v>7500</v>
+        <v>7250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3750</v>
+        <v>3625</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44609</v>
+        <v>44944</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1247,13 +1247,13 @@
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O11" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P11" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3375</v>
+        <v>3750</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O12" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P12" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3000</v>
+        <v>3375</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44602</v>
+        <v>44609</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
         <v>6000</v>
       </c>
       <c r="O13" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P13" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O14" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P14" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44532</v>
+        <v>44602</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O15" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P15" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O16" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P16" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44195</v>
+        <v>44532</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O17" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P17" t="n">
-        <v>3250</v>
+        <v>8000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1625</v>
+        <v>4000</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="O18" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="P18" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1250</v>
+        <v>1625</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44910</v>
+        <v>44195</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="O19" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="P19" t="n">
-        <v>7750</v>
+        <v>2500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3875</v>
+        <v>1250</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44988</v>
+        <v>44910</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1967,28 +1967,108 @@
         <v>200</v>
       </c>
       <c r="N20" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O20" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>7750</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>3875</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>200</v>
+      </c>
+      <c r="N21" t="n">
         <v>6000</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O21" t="n">
         <v>7000</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P21" t="n">
         <v>6500</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>Región de Ñuble</t>
         </is>
       </c>
-      <c r="S20" t="n">
+      <c r="S21" t="n">
         <v>3250</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T21" t="n">
         <v>2</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44559</v>
+        <v>45014</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P2" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3250</v>
+        <v>3625</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44559</v>
+        <v>44532</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -600,33 +600,33 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>100</v>
       </c>
       <c r="N3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
         <v>5000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v>2500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44216</v>
+        <v>44532</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -680,33 +680,33 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
         <v>4000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3750</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>1875</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44216</v>
+        <v>44574</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>3750</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O6" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P6" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44574</v>
+        <v>44559</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
         <v>6000</v>
       </c>
       <c r="O7" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44617</v>
+        <v>44559</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P8" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44917</v>
+        <v>44195</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1087,13 +1087,13 @@
         <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O9" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="P9" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3625</v>
+        <v>1625</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45014</v>
+        <v>44195</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="O10" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="P10" t="n">
-        <v>7250</v>
+        <v>2500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3625</v>
+        <v>1250</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44532</v>
+        <v>44216</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="O16" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P16" t="n">
-        <v>10000</v>
+        <v>3750</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>5000</v>
+        <v>1875</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44532</v>
+        <v>44216</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1727,13 +1727,13 @@
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O17" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P17" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44195</v>
+        <v>44617</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1807,26 +1807,26 @@
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O18" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P18" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
         <v>3250</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
-        <v>1625</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44195</v>
+        <v>44917</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O19" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="P19" t="n">
-        <v>2500</v>
+        <v>7250</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1250</v>
+        <v>3625</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44910</v>
+        <v>44988</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1967,13 +1967,13 @@
         <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O20" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P20" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3875</v>
+        <v>3250</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44988</v>
+        <v>44910</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2047,13 +2047,13 @@
         <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O21" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P21" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>3250</v>
+        <v>3875</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45014</v>
+        <v>44532</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>7250</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3625</v>
+        <v>5000</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44532</v>
+        <v>44559</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O4" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>3250</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44574</v>
+        <v>44559</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P5" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P6" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44559</v>
+        <v>44574</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
         <v>6000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P7" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44559</v>
+        <v>44910</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="O8" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P8" t="n">
-        <v>5000</v>
+        <v>7750</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2500</v>
+        <v>3875</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44195</v>
+        <v>44917</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1087,13 +1087,13 @@
         <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="P9" t="n">
-        <v>3250</v>
+        <v>7250</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1625</v>
+        <v>3625</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44195</v>
+        <v>44602</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O10" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="P10" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1250</v>
+        <v>3250</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44944</v>
+        <v>44602</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O11" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P11" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44609</v>
+        <v>45014</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1327,13 +1327,13 @@
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O12" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P12" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3375</v>
+        <v>3625</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44609</v>
+        <v>44617</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
         <v>6000</v>
       </c>
       <c r="O13" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P13" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44602</v>
+        <v>44216</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1487,13 +1487,13 @@
         <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O14" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P14" t="n">
-        <v>6500</v>
+        <v>3750</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3250</v>
+        <v>1875</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44602</v>
+        <v>44216</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1567,13 +1567,13 @@
         <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O15" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P15" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44216</v>
+        <v>44944</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1644,29 +1644,29 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O16" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P16" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
         <v>3750</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
-        <v>1875</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
         <v>3000</v>
       </c>
       <c r="O17" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P17" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1500</v>
+        <v>1625</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44617</v>
+        <v>44195</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="O18" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="P18" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3250</v>
+        <v>1250</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44917</v>
+        <v>44609</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O19" t="n">
         <v>7000</v>
       </c>
-      <c r="O19" t="n">
-        <v>7500</v>
-      </c>
       <c r="P19" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3625</v>
+        <v>3375</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44988</v>
+        <v>44609</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N20" t="n">
         <v>6000</v>
       </c>
       <c r="O20" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P20" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44910</v>
+        <v>44988</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2047,13 +2047,13 @@
         <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O21" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P21" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>3875</v>
+        <v>3250</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44532</v>
+        <v>44195</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>3250</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>5000</v>
+        <v>1625</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44532</v>
+        <v>44195</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="O3" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="P3" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>4000</v>
+        <v>1250</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44559</v>
+        <v>44216</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,13 +687,13 @@
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P4" t="n">
-        <v>6500</v>
+        <v>3750</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3250</v>
+        <v>1875</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44559</v>
+        <v>44216</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -767,13 +767,13 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P5" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44574</v>
+        <v>44602</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -847,13 +847,13 @@
         <v>200</v>
       </c>
       <c r="N6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O6" t="n">
         <v>7000</v>
       </c>
-      <c r="O6" t="n">
-        <v>8000</v>
-      </c>
       <c r="P6" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44574</v>
+        <v>44602</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -927,13 +927,13 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O7" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P7" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44910</v>
+        <v>44609</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="O8" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3875</v>
+        <v>3375</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44917</v>
+        <v>44609</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O9" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P9" t="n">
-        <v>7250</v>
+        <v>6000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3625</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44602</v>
+        <v>44917</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1167,13 +1167,13 @@
         <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O10" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P10" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3250</v>
+        <v>3625</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44602</v>
+        <v>44559</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O11" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P11" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45014</v>
+        <v>44559</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O12" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P12" t="n">
-        <v>7250</v>
+        <v>5000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3625</v>
+        <v>2500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44617</v>
+        <v>44574</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1407,13 +1407,13 @@
         <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O13" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P13" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44216</v>
+        <v>44574</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O14" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P14" t="n">
-        <v>3750</v>
+        <v>6000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1875</v>
+        <v>3000</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44216</v>
+        <v>44617</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O15" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1500</v>
+        <v>3250</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44195</v>
+        <v>44532</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O17" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="P17" t="n">
-        <v>3250</v>
+        <v>10000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1625</v>
+        <v>5000</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44195</v>
+        <v>44532</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1807,13 +1807,13 @@
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="O18" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="P18" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1250</v>
+        <v>4000</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44609</v>
+        <v>45014</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1887,13 +1887,13 @@
         <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O19" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P19" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3375</v>
+        <v>3625</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44609</v>
+        <v>44988</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
         <v>6000</v>
       </c>
       <c r="O20" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P20" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44988</v>
+        <v>44910</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2047,13 +2047,13 @@
         <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O21" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P21" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>3250</v>
+        <v>3875</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44195</v>
+        <v>44617</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,26 +527,26 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O2" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P2" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
         <v>3250</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v>1625</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44195</v>
+        <v>44917</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="P3" t="n">
-        <v>2500</v>
+        <v>7250</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1250</v>
+        <v>3625</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44216</v>
+        <v>44609</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="O4" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1875</v>
+        <v>3375</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44216</v>
+        <v>44609</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -764,29 +764,29 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
         <v>3000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44602</v>
+        <v>44944</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P6" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44602</v>
+        <v>45014</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>3625</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44609</v>
+        <v>44602</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="O8" t="n">
         <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3375</v>
+        <v>3250</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44609</v>
+        <v>44602</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O9" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P9" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44917</v>
+        <v>44988</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1167,13 +1167,13 @@
         <v>200</v>
       </c>
       <c r="N10" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O10" t="n">
         <v>7000</v>
       </c>
-      <c r="O10" t="n">
-        <v>7500</v>
-      </c>
       <c r="P10" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3625</v>
+        <v>3250</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44559</v>
+        <v>44532</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P11" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3250</v>
+        <v>5000</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44559</v>
+        <v>44532</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1327,13 +1327,13 @@
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O12" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44617</v>
+        <v>44195</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1567,13 +1567,13 @@
         <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O15" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="P15" t="n">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3250</v>
+        <v>1625</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44944</v>
+        <v>44195</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="O16" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="P16" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3750</v>
+        <v>1250</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44532</v>
+        <v>44910</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="O17" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P17" t="n">
-        <v>10000</v>
+        <v>7750</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>5000</v>
+        <v>3875</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44532</v>
+        <v>44216</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O18" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P18" t="n">
-        <v>8000</v>
+        <v>3750</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>4000</v>
+        <v>1875</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45014</v>
+        <v>44216</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O19" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="P19" t="n">
-        <v>7250</v>
+        <v>3000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3625</v>
+        <v>1500</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44988</v>
+        <v>44559</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44910</v>
+        <v>44559</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O21" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P21" t="n">
-        <v>7750</v>
+        <v>5000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>3875</v>
+        <v>2500</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44617</v>
+        <v>44988</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44917</v>
+        <v>44195</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O3" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="P3" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3625</v>
+        <v>1625</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44609</v>
+        <v>44195</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="P4" t="n">
-        <v>6750</v>
+        <v>2500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3375</v>
+        <v>1250</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44609</v>
+        <v>45014</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="P5" t="n">
-        <v>6000</v>
+        <v>7250</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>3625</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44944</v>
+        <v>44532</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -847,13 +847,13 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45014</v>
+        <v>44532</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O7" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>7250</v>
+        <v>8000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3625</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44602</v>
+        <v>44910</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1007,13 +1007,13 @@
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P8" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3250</v>
+        <v>3875</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44602</v>
+        <v>44216</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O9" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2500</v>
+        <v>1875</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44988</v>
+        <v>44216</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O10" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="P10" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44532</v>
+        <v>44617</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P11" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>5000</v>
+        <v>3250</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44532</v>
+        <v>44609</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="O12" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P12" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4000</v>
+        <v>3375</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44574</v>
+        <v>44609</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O13" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P13" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44574</v>
+        <v>44602</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
         <v>6000</v>
       </c>
       <c r="O14" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P14" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44195</v>
+        <v>44602</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O15" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P15" t="n">
-        <v>3250</v>
+        <v>5000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1625</v>
+        <v>2500</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44195</v>
+        <v>44917</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O16" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="P16" t="n">
-        <v>2500</v>
+        <v>7250</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1250</v>
+        <v>3625</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44910</v>
+        <v>44944</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O17" t="n">
         <v>8000</v>
       </c>
       <c r="P17" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3875</v>
+        <v>3750</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44216</v>
+        <v>44574</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1807,26 +1807,26 @@
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O18" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P18" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
         <v>3750</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
-        <v>1875</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44216</v>
+        <v>44574</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1887,26 +1887,26 @@
         <v>100</v>
       </c>
       <c r="N19" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O19" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
         <v>3000</v>
-      </c>
-      <c r="O19" t="n">
-        <v>3000</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3000</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S19" t="n">
-        <v>1500</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44988</v>
+        <v>44617</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44195</v>
+        <v>44917</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="P3" t="n">
-        <v>3250</v>
+        <v>7250</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1625</v>
+        <v>3625</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44195</v>
+        <v>44609</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="O4" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>2500</v>
+        <v>6750</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1250</v>
+        <v>3375</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45014</v>
+        <v>44609</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O5" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P5" t="n">
-        <v>7250</v>
+        <v>6000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3625</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44532</v>
+        <v>44944</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -847,13 +847,13 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44532</v>
+        <v>45014</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P7" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>3625</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44910</v>
+        <v>44602</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1007,13 +1007,13 @@
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O8" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3875</v>
+        <v>3250</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44216</v>
+        <v>44602</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O9" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P9" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1875</v>
+        <v>2500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44216</v>
+        <v>44988</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O10" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>3250</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44617</v>
+        <v>44532</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P11" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3250</v>
+        <v>5000</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44609</v>
+        <v>44532</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O12" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P12" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3375</v>
+        <v>4000</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44609</v>
+        <v>44574</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O13" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P13" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44602</v>
+        <v>44574</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
         <v>6000</v>
       </c>
       <c r="O14" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P14" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44602</v>
+        <v>44195</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O15" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P15" t="n">
-        <v>5000</v>
+        <v>3250</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2500</v>
+        <v>1625</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44917</v>
+        <v>44195</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="O16" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="P16" t="n">
-        <v>7250</v>
+        <v>2500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3625</v>
+        <v>1250</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44944</v>
+        <v>44910</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O17" t="n">
         <v>8000</v>
       </c>
       <c r="P17" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3750</v>
+        <v>3875</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44574</v>
+        <v>44216</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1807,13 +1807,13 @@
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O18" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P18" t="n">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3750</v>
+        <v>1875</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44574</v>
+        <v>44216</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1887,13 +1887,13 @@
         <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O19" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="P19" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44988</v>
+        <v>44609</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O2" t="n">
         <v>7000</v>
       </c>
       <c r="P2" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3250</v>
+        <v>3375</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44195</v>
+        <v>44609</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -600,33 +600,33 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
         <v>3000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3500</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3250</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v>1625</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44195</v>
+        <v>44559</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O4" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1250</v>
+        <v>3250</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45014</v>
+        <v>44559</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O5" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P5" t="n">
-        <v>7250</v>
+        <v>5000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3625</v>
+        <v>2500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44910</v>
+        <v>44602</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1007,13 +1007,13 @@
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O8" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3875</v>
+        <v>3250</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44216</v>
+        <v>44602</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O9" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P9" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1875</v>
+        <v>2500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44216</v>
+        <v>44574</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O10" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>3750</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44617</v>
+        <v>44574</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
         <v>6000</v>
       </c>
       <c r="O11" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P11" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44609</v>
+        <v>44917</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O12" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P12" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3375</v>
+        <v>3625</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44609</v>
+        <v>44944</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O13" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P13" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44602</v>
+        <v>44988</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44602</v>
+        <v>44216</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O15" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P15" t="n">
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2500</v>
+        <v>1875</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44917</v>
+        <v>44216</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O16" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="P16" t="n">
-        <v>7250</v>
+        <v>3000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3625</v>
+        <v>1500</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44944</v>
+        <v>44617</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O17" t="n">
         <v>7000</v>
       </c>
-      <c r="O17" t="n">
-        <v>8000</v>
-      </c>
       <c r="P17" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44574</v>
+        <v>44910</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1807,13 +1807,13 @@
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O18" t="n">
         <v>8000</v>
       </c>
       <c r="P18" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3750</v>
+        <v>3875</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44574</v>
+        <v>45014</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O19" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="P19" t="n">
-        <v>6000</v>
+        <v>7250</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3000</v>
+        <v>3625</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44559</v>
+        <v>44195</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1967,13 +1967,13 @@
         <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O20" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="P20" t="n">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3250</v>
+        <v>1625</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44559</v>
+        <v>44195</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2047,13 +2047,13 @@
         <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="O21" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="P21" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44609</v>
+        <v>44532</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>6750</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3375</v>
+        <v>5000</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44609</v>
+        <v>44532</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O3" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P3" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44559</v>
+        <v>44609</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O4" t="n">
         <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3250</v>
+        <v>3375</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44559</v>
+        <v>44609</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O5" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P5" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44532</v>
+        <v>45014</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -847,13 +847,13 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>7250</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>5000</v>
+        <v>3625</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44532</v>
+        <v>44988</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>3250</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44602</v>
+        <v>44195</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1007,13 +1007,13 @@
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="P8" t="n">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3250</v>
+        <v>1625</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44602</v>
+        <v>44195</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="O9" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44574</v>
+        <v>44216</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1167,13 +1167,13 @@
         <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O10" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P10" t="n">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3750</v>
+        <v>1875</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44574</v>
+        <v>44216</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1247,13 +1247,13 @@
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O11" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="P11" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44917</v>
+        <v>44944</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1324,17 +1324,17 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
         <v>7000</v>
       </c>
       <c r="O12" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P12" t="n">
         <v>7500</v>
       </c>
-      <c r="P12" t="n">
-        <v>7250</v>
-      </c>
       <c r="Q12" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3625</v>
+        <v>3750</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44944</v>
+        <v>44574</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
         <v>7000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44988</v>
+        <v>44574</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
         <v>6000</v>
       </c>
       <c r="O14" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P14" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44216</v>
+        <v>44910</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1567,13 +1567,13 @@
         <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="O15" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P15" t="n">
-        <v>3750</v>
+        <v>7750</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1875</v>
+        <v>3875</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44216</v>
+        <v>44602</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O16" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P16" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1500</v>
+        <v>3250</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44617</v>
+        <v>44602</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O17" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P17" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44910</v>
+        <v>44617</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1807,13 +1807,13 @@
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O18" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P18" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3875</v>
+        <v>3250</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45014</v>
+        <v>44559</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O19" t="n">
         <v>7000</v>
       </c>
-      <c r="O19" t="n">
-        <v>7500</v>
-      </c>
       <c r="P19" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3625</v>
+        <v>3250</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44195</v>
+        <v>44559</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O20" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P20" t="n">
-        <v>3250</v>
+        <v>5000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1625</v>
+        <v>2500</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44195</v>
+        <v>44917</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O21" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="P21" t="n">
-        <v>2500</v>
+        <v>7250</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1250</v>
+        <v>3625</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44532</v>
+        <v>44602</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>5000</v>
+        <v>3250</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44532</v>
+        <v>44602</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O3" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P3" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44609</v>
+        <v>44917</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P4" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3375</v>
+        <v>3625</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44609</v>
+        <v>44559</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
         <v>6000</v>
       </c>
       <c r="O5" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45014</v>
+        <v>44559</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O6" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P6" t="n">
-        <v>7250</v>
+        <v>5000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3625</v>
+        <v>2500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44988</v>
+        <v>44910</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -927,13 +927,13 @@
         <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3250</v>
+        <v>3875</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44195</v>
+        <v>44216</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1007,13 +1007,13 @@
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O8" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P8" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1625</v>
+        <v>1875</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44195</v>
+        <v>44216</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="O9" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="P9" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44216</v>
+        <v>44617</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1167,13 +1167,13 @@
         <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O10" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P10" t="n">
-        <v>3750</v>
+        <v>6500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1875</v>
+        <v>3250</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44216</v>
+        <v>44988</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O11" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1500</v>
+        <v>3250</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44944</v>
+        <v>44532</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1327,13 +1327,13 @@
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O12" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P12" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44574</v>
+        <v>44532</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O13" t="n">
         <v>8000</v>
       </c>
       <c r="P13" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3750</v>
+        <v>4000</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44574</v>
+        <v>44195</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O14" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P14" t="n">
-        <v>6000</v>
+        <v>3250</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3000</v>
+        <v>1625</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44910</v>
+        <v>44195</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="O15" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="P15" t="n">
-        <v>7750</v>
+        <v>2500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3875</v>
+        <v>1250</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44602</v>
+        <v>44944</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O16" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P16" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44602</v>
+        <v>45014</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O17" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="P17" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2500</v>
+        <v>3625</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44617</v>
+        <v>44609</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O18" t="n">
         <v>7000</v>
       </c>
       <c r="P18" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3250</v>
+        <v>3375</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44559</v>
+        <v>44609</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
         <v>6000</v>
       </c>
       <c r="O19" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P19" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44559</v>
+        <v>44574</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O20" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P20" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44917</v>
+        <v>44574</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O21" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P21" t="n">
-        <v>7250</v>
+        <v>6000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>3625</v>
+        <v>3000</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44602</v>
+        <v>44574</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44602</v>
+        <v>44574</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O3" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P3" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44917</v>
+        <v>44944</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,17 +684,17 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>7000</v>
       </c>
       <c r="O4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P4" t="n">
         <v>7500</v>
       </c>
-      <c r="P4" t="n">
-        <v>7250</v>
-      </c>
       <c r="Q4" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3625</v>
+        <v>3750</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44559</v>
+        <v>44216</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -767,13 +767,13 @@
         <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O5" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P5" t="n">
-        <v>6500</v>
+        <v>3750</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3250</v>
+        <v>1875</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44559</v>
+        <v>44216</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -847,13 +847,13 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O6" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P6" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44910</v>
+        <v>44609</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3875</v>
+        <v>3375</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44216</v>
+        <v>44609</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O8" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P8" t="n">
-        <v>3750</v>
+        <v>6000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1875</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44216</v>
+        <v>44532</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44617</v>
+        <v>44532</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O10" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P10" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44532</v>
+        <v>44195</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O12" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="P12" t="n">
-        <v>10000</v>
+        <v>3250</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>5000</v>
+        <v>1625</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44532</v>
+        <v>44195</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1407,13 +1407,13 @@
         <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="O13" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="P13" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4000</v>
+        <v>1250</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44195</v>
+        <v>44602</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1487,26 +1487,26 @@
         <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O14" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P14" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
         <v>3250</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v>1625</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44195</v>
+        <v>44602</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1567,26 +1567,26 @@
         <v>100</v>
       </c>
       <c r="N15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
         <v>2500</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2500</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2500</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
-        <v>1250</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44944</v>
+        <v>44617</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O16" t="n">
         <v>7000</v>
       </c>
-      <c r="O16" t="n">
-        <v>8000</v>
-      </c>
       <c r="P16" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45014</v>
+        <v>44917</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
         <v>7000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44609</v>
+        <v>45014</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1807,13 +1807,13 @@
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O18" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P18" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3375</v>
+        <v>3625</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44609</v>
+        <v>44910</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O19" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P19" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3000</v>
+        <v>3875</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44574</v>
+        <v>44559</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1967,13 +1967,13 @@
         <v>200</v>
       </c>
       <c r="N20" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O20" t="n">
         <v>7000</v>
       </c>
-      <c r="O20" t="n">
-        <v>8000</v>
-      </c>
       <c r="P20" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44574</v>
+        <v>44559</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2047,13 +2047,13 @@
         <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O21" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P21" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44574</v>
+        <v>44602</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O2" t="n">
         <v>7000</v>
       </c>
-      <c r="O2" t="n">
-        <v>8000</v>
-      </c>
       <c r="P2" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44574</v>
+        <v>44602</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O3" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P3" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44944</v>
+        <v>44917</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
         <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P4" t="n">
-        <v>7500</v>
+        <v>7250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3750</v>
+        <v>3625</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44216</v>
+        <v>44559</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -767,13 +767,13 @@
         <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O5" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>3750</v>
+        <v>6500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1875</v>
+        <v>3250</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44216</v>
+        <v>44559</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -847,13 +847,13 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O6" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44609</v>
+        <v>44910</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3375</v>
+        <v>3875</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44609</v>
+        <v>44216</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O8" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P8" t="n">
-        <v>6000</v>
+        <v>3750</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>1875</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44532</v>
+        <v>44216</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44532</v>
+        <v>44617</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O10" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P10" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4000</v>
+        <v>3250</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44195</v>
+        <v>44532</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O12" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="P12" t="n">
-        <v>3250</v>
+        <v>10000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1625</v>
+        <v>5000</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44195</v>
+        <v>44532</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1407,13 +1407,13 @@
         <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="O13" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="P13" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1250</v>
+        <v>4000</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44602</v>
+        <v>44195</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1487,13 +1487,13 @@
         <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O14" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="P14" t="n">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3250</v>
+        <v>1625</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44602</v>
+        <v>44195</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1567,13 +1567,13 @@
         <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="O15" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="P15" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44617</v>
+        <v>44944</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O16" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P16" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44917</v>
+        <v>45014</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
         <v>7000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45014</v>
+        <v>44609</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1807,13 +1807,13 @@
         <v>100</v>
       </c>
       <c r="N18" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O18" t="n">
         <v>7000</v>
       </c>
-      <c r="O18" t="n">
-        <v>7500</v>
-      </c>
       <c r="P18" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3625</v>
+        <v>3375</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44910</v>
+        <v>44609</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O19" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P19" t="n">
-        <v>7750</v>
+        <v>6000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3875</v>
+        <v>3000</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44559</v>
+        <v>44574</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1967,13 +1967,13 @@
         <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O20" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P20" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44559</v>
+        <v>44574</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2047,13 +2047,13 @@
         <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O21" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P21" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44574</v>
+        <v>44195</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O2" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="P2" t="n">
-        <v>7500</v>
+        <v>3250</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3750</v>
+        <v>1625</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44574</v>
+        <v>44195</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="O3" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="P3" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44944</v>
+        <v>44609</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,13 +687,13 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O4" t="n">
         <v>7000</v>
       </c>
-      <c r="O4" t="n">
-        <v>8000</v>
-      </c>
       <c r="P4" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3750</v>
+        <v>3375</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44216</v>
+        <v>44609</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O5" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P5" t="n">
-        <v>3750</v>
+        <v>6000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1875</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44216</v>
+        <v>45014</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>7250</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1500</v>
+        <v>3625</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44609</v>
+        <v>44602</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="O7" t="n">
         <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3375</v>
+        <v>3250</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44609</v>
+        <v>44602</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O8" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P8" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44532</v>
+        <v>44559</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>5000</v>
+        <v>3250</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44532</v>
+        <v>44559</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1167,13 +1167,13 @@
         <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O10" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P10" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44988</v>
+        <v>44216</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1247,13 +1247,13 @@
         <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O11" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P11" t="n">
-        <v>6500</v>
+        <v>3750</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3250</v>
+        <v>1875</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44195</v>
+        <v>44216</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
         <v>3000</v>
       </c>
       <c r="O12" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="P12" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1625</v>
+        <v>1500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44195</v>
+        <v>44944</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O13" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="P13" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1250</v>
+        <v>3750</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44602</v>
+        <v>44988</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44602</v>
+        <v>44917</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O15" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="P15" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2500</v>
+        <v>3625</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44917</v>
+        <v>44910</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1727,13 +1727,13 @@
         <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O17" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P17" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3625</v>
+        <v>3875</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45014</v>
+        <v>44532</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1807,13 +1807,13 @@
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O18" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P18" t="n">
-        <v>7250</v>
+        <v>10000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3625</v>
+        <v>5000</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44910</v>
+        <v>44532</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O19" t="n">
         <v>8000</v>
       </c>
       <c r="P19" t="n">
-        <v>7750</v>
+        <v>8000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3875</v>
+        <v>4000</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44559</v>
+        <v>44574</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1967,13 +1967,13 @@
         <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O20" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P20" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44559</v>
+        <v>44574</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2047,13 +2047,13 @@
         <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O21" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P21" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44195</v>
+        <v>44574</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>3250</v>
+        <v>7500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1625</v>
+        <v>3750</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44195</v>
+        <v>44574</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O3" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="P3" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1250</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44609</v>
+        <v>44944</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,13 +687,13 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P4" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3375</v>
+        <v>3750</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44609</v>
+        <v>44216</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O5" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P5" t="n">
-        <v>6000</v>
+        <v>3750</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>1875</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45014</v>
+        <v>44216</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O6" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="P6" t="n">
-        <v>7250</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3625</v>
+        <v>1500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44602</v>
+        <v>44609</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O7" t="n">
         <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3250</v>
+        <v>3375</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44602</v>
+        <v>44609</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O8" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P8" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44559</v>
+        <v>44532</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3250</v>
+        <v>5000</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44559</v>
+        <v>44532</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1167,13 +1167,13 @@
         <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O10" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P10" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44216</v>
+        <v>44988</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1247,13 +1247,13 @@
         <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O11" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P11" t="n">
-        <v>3750</v>
+        <v>6500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1875</v>
+        <v>3250</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
         <v>3000</v>
       </c>
       <c r="O12" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1500</v>
+        <v>1625</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44944</v>
+        <v>44195</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="O13" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="P13" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3750</v>
+        <v>1250</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44988</v>
+        <v>44602</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44917</v>
+        <v>44602</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O15" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P15" t="n">
-        <v>7250</v>
+        <v>5000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3625</v>
+        <v>2500</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44910</v>
+        <v>44917</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1727,13 +1727,13 @@
         <v>200</v>
       </c>
       <c r="N17" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O17" t="n">
         <v>7500</v>
       </c>
-      <c r="O17" t="n">
-        <v>8000</v>
-      </c>
       <c r="P17" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3875</v>
+        <v>3625</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44532</v>
+        <v>45014</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1807,13 +1807,13 @@
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P18" t="n">
-        <v>10000</v>
+        <v>7250</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>5000</v>
+        <v>3625</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44532</v>
+        <v>44910</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O19" t="n">
         <v>8000</v>
       </c>
       <c r="P19" t="n">
-        <v>8000</v>
+        <v>7750</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>4000</v>
+        <v>3875</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44574</v>
+        <v>44559</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1967,13 +1967,13 @@
         <v>200</v>
       </c>
       <c r="N20" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O20" t="n">
         <v>7000</v>
       </c>
-      <c r="O20" t="n">
-        <v>8000</v>
-      </c>
       <c r="P20" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44574</v>
+        <v>44559</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2047,13 +2047,13 @@
         <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O21" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P21" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44195</v>
+        <v>44944</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>3250</v>
+        <v>7500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1625</v>
+        <v>3750</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44195</v>
+        <v>44602</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O3" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="P3" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1250</v>
+        <v>3250</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44609</v>
+        <v>44602</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P4" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3375</v>
+        <v>2500</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44609</v>
+        <v>44195</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P5" t="n">
-        <v>6000</v>
+        <v>3250</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>1625</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45014</v>
+        <v>44195</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="O6" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="P6" t="n">
-        <v>7250</v>
+        <v>2500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3625</v>
+        <v>1250</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44602</v>
+        <v>44559</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44602</v>
+        <v>44559</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44559</v>
+        <v>44910</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1087,13 +1087,13 @@
         <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O9" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P9" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3250</v>
+        <v>3875</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44559</v>
+        <v>45014</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O10" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="P10" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2500</v>
+        <v>3625</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44216</v>
+        <v>44617</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1247,13 +1247,13 @@
         <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O11" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P11" t="n">
-        <v>3750</v>
+        <v>6500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1875</v>
+        <v>3250</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44216</v>
+        <v>44917</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O12" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>7250</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1500</v>
+        <v>3625</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44944</v>
+        <v>44574</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
         <v>7000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44988</v>
+        <v>44574</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
         <v>6000</v>
       </c>
       <c r="O14" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P14" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44917</v>
+        <v>44216</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1567,13 +1567,13 @@
         <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O15" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="P15" t="n">
-        <v>7250</v>
+        <v>3750</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3625</v>
+        <v>1875</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44617</v>
+        <v>44216</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O16" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="P16" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44910</v>
+        <v>44988</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1727,13 +1727,13 @@
         <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O17" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P17" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3875</v>
+        <v>3250</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44574</v>
+        <v>44609</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O20" t="n">
         <v>7000</v>
       </c>
-      <c r="O20" t="n">
-        <v>8000</v>
-      </c>
       <c r="P20" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3750</v>
+        <v>3375</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44574</v>
+        <v>44609</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
         <v>6000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44944</v>
+        <v>44559</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O2" t="n">
         <v>7000</v>
       </c>
-      <c r="O2" t="n">
-        <v>8000</v>
-      </c>
       <c r="P2" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44602</v>
+        <v>44559</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O3" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P3" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44602</v>
+        <v>44532</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -680,33 +680,33 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>100</v>
       </c>
       <c r="N4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
         <v>5000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>2500</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44195</v>
+        <v>44532</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O5" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P5" t="n">
-        <v>3250</v>
+        <v>8000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1625</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44195</v>
+        <v>44917</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="P6" t="n">
-        <v>2500</v>
+        <v>7250</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1250</v>
+        <v>3625</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44559</v>
+        <v>44944</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44559</v>
+        <v>44574</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P8" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44910</v>
+        <v>44574</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O9" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P9" t="n">
-        <v>7750</v>
+        <v>6000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3875</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44617</v>
+        <v>44195</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1247,13 +1247,13 @@
         <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O11" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="P11" t="n">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3250</v>
+        <v>1625</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44917</v>
+        <v>44195</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="O12" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="P12" t="n">
-        <v>7250</v>
+        <v>2500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3625</v>
+        <v>1250</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44574</v>
+        <v>44602</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1407,13 +1407,13 @@
         <v>200</v>
       </c>
       <c r="N13" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O13" t="n">
         <v>7000</v>
       </c>
-      <c r="O13" t="n">
-        <v>8000</v>
-      </c>
       <c r="P13" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44574</v>
+        <v>44602</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1487,13 +1487,13 @@
         <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O14" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P14" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44216</v>
+        <v>44910</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1567,13 +1567,13 @@
         <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="O15" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P15" t="n">
-        <v>3750</v>
+        <v>7750</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1875</v>
+        <v>3875</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O16" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P16" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1500</v>
+        <v>1875</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44988</v>
+        <v>44216</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O17" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="P17" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44532</v>
+        <v>44988</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P18" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>5000</v>
+        <v>3250</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44532</v>
+        <v>44617</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O19" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P19" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>4000</v>
+        <v>3250</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44559</v>
+        <v>44609</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O2" t="n">
         <v>7000</v>
       </c>
       <c r="P2" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3250</v>
+        <v>3375</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44559</v>
+        <v>44609</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O3" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P3" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44532</v>
+        <v>44602</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>5000</v>
+        <v>3250</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44532</v>
+        <v>44602</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -767,13 +767,13 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P5" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44917</v>
+        <v>44559</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -847,13 +847,13 @@
         <v>200</v>
       </c>
       <c r="N6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O6" t="n">
         <v>7000</v>
       </c>
-      <c r="O6" t="n">
-        <v>7500</v>
-      </c>
       <c r="P6" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3625</v>
+        <v>3250</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44944</v>
+        <v>44559</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P7" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45014</v>
+        <v>44988</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O10" t="n">
         <v>7000</v>
       </c>
-      <c r="O10" t="n">
-        <v>7500</v>
-      </c>
       <c r="P10" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3625</v>
+        <v>3250</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44195</v>
+        <v>44216</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1247,13 +1247,13 @@
         <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O11" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P11" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1625</v>
+        <v>1875</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44195</v>
+        <v>44216</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1327,13 +1327,13 @@
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="O12" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="P12" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44602</v>
+        <v>44195</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1407,13 +1407,13 @@
         <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O13" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="P13" t="n">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3250</v>
+        <v>1625</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44602</v>
+        <v>44195</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1487,13 +1487,13 @@
         <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="O14" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="P14" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44910</v>
+        <v>44944</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O15" t="n">
         <v>8000</v>
       </c>
       <c r="P15" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3875</v>
+        <v>3750</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44216</v>
+        <v>44617</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1647,13 +1647,13 @@
         <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O16" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P16" t="n">
-        <v>3750</v>
+        <v>6500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1875</v>
+        <v>3250</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44216</v>
+        <v>45014</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O17" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="P17" t="n">
-        <v>3000</v>
+        <v>7250</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1500</v>
+        <v>3625</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44988</v>
+        <v>44917</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1807,13 +1807,13 @@
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O18" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P18" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3250</v>
+        <v>3625</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44617</v>
+        <v>44532</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O19" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P19" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3250</v>
+        <v>5000</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44609</v>
+        <v>44532</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O20" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P20" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3375</v>
+        <v>4000</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44609</v>
+        <v>44910</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O21" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P21" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>3000</v>
+        <v>3875</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44609</v>
+        <v>44917</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P2" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3375</v>
+        <v>3625</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44609</v>
+        <v>44574</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P3" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44602</v>
+        <v>44574</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>6000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P4" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44602</v>
+        <v>44216</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O5" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P5" t="n">
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2500</v>
+        <v>1875</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44559</v>
+        <v>44216</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="P6" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44559</v>
+        <v>44602</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O7" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44574</v>
+        <v>44602</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O8" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P8" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44574</v>
+        <v>44910</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O9" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P9" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>3875</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44988</v>
+        <v>44944</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O10" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P10" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44216</v>
+        <v>44609</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="O11" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P11" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1875</v>
+        <v>3375</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44216</v>
+        <v>44609</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1324,29 +1324,29 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
         <v>3000</v>
-      </c>
-      <c r="O12" t="n">
-        <v>3000</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3000</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v>1500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44195</v>
+        <v>44988</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1407,26 +1407,26 @@
         <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O13" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P13" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
         <v>3250</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v>1625</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44195</v>
+        <v>44559</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O14" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="P14" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1250</v>
+        <v>3250</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44944</v>
+        <v>44559</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O15" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P15" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44617</v>
+        <v>44532</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O16" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P16" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3250</v>
+        <v>5000</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45014</v>
+        <v>44532</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O17" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P17" t="n">
-        <v>7250</v>
+        <v>8000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3625</v>
+        <v>4000</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44917</v>
+        <v>44195</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1807,13 +1807,13 @@
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O18" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="P18" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3625</v>
+        <v>1625</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44532</v>
+        <v>44195</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="O19" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="P19" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>5000</v>
+        <v>1250</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44532</v>
+        <v>45014</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O20" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P20" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>4000</v>
+        <v>3625</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44910</v>
+        <v>44617</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2047,13 +2047,13 @@
         <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O21" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P21" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>3875</v>
+        <v>3250</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44574</v>
+        <v>44532</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44574</v>
+        <v>44532</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,13 +687,13 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O4" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P4" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44216</v>
+        <v>44609</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="O5" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1875</v>
+        <v>3375</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44216</v>
+        <v>44609</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -844,29 +844,29 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
         <v>3000</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v>1500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44602</v>
+        <v>44559</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44602</v>
+        <v>44559</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44910</v>
+        <v>44602</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1087,13 +1087,13 @@
         <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O9" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3875</v>
+        <v>3250</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44944</v>
+        <v>44602</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O10" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P10" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44609</v>
+        <v>44910</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="O11" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P11" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3375</v>
+        <v>3875</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44609</v>
+        <v>44988</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
         <v>6000</v>
       </c>
       <c r="O12" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P12" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44988</v>
+        <v>45014</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O13" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P13" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3250</v>
+        <v>3625</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44559</v>
+        <v>44617</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44559</v>
+        <v>44195</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O15" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P15" t="n">
-        <v>5000</v>
+        <v>3250</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2500</v>
+        <v>1625</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44532</v>
+        <v>44195</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="O16" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="P16" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>5000</v>
+        <v>1250</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44532</v>
+        <v>44944</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O17" t="n">
         <v>8000</v>
       </c>
       <c r="P17" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>4000</v>
+        <v>3750</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44195</v>
+        <v>44574</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1807,13 +1807,13 @@
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O18" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P18" t="n">
-        <v>3250</v>
+        <v>7500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1625</v>
+        <v>3750</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44195</v>
+        <v>44574</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1887,13 +1887,13 @@
         <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O19" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="P19" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1250</v>
+        <v>3000</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45014</v>
+        <v>44216</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O20" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="P20" t="n">
-        <v>7250</v>
+        <v>3750</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3625</v>
+        <v>1875</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44617</v>
+        <v>44216</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O21" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="P21" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44917</v>
+        <v>44559</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O2" t="n">
         <v>7000</v>
       </c>
-      <c r="O2" t="n">
-        <v>7500</v>
-      </c>
       <c r="P2" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3625</v>
+        <v>3250</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44532</v>
+        <v>44559</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44532</v>
+        <v>44195</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O4" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="P4" t="n">
-        <v>8000</v>
+        <v>3250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>1625</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44609</v>
+        <v>44195</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="O5" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="P5" t="n">
-        <v>6750</v>
+        <v>2500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3375</v>
+        <v>1250</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44609</v>
+        <v>44602</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
         <v>6000</v>
       </c>
       <c r="O6" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44559</v>
+        <v>44602</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P7" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44559</v>
+        <v>44910</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="O8" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P8" t="n">
-        <v>5000</v>
+        <v>7750</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2500</v>
+        <v>3875</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44602</v>
+        <v>45014</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P9" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3250</v>
+        <v>3625</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44602</v>
+        <v>44617</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O10" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P10" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44910</v>
+        <v>44988</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1247,13 +1247,13 @@
         <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O11" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P11" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3875</v>
+        <v>3250</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44988</v>
+        <v>44216</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1327,13 +1327,13 @@
         <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O12" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P12" t="n">
-        <v>6500</v>
+        <v>3750</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3250</v>
+        <v>1875</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45014</v>
+        <v>44216</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O13" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="P13" t="n">
-        <v>7250</v>
+        <v>3000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3625</v>
+        <v>1500</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44617</v>
+        <v>44944</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O14" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P14" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44195</v>
+        <v>44532</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O15" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="P15" t="n">
-        <v>3250</v>
+        <v>10000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1625</v>
+        <v>5000</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44195</v>
+        <v>44532</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1647,13 +1647,13 @@
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="O16" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="P16" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1250</v>
+        <v>4000</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44944</v>
+        <v>44609</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1727,13 +1727,13 @@
         <v>100</v>
       </c>
       <c r="N17" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O17" t="n">
         <v>7000</v>
       </c>
-      <c r="O17" t="n">
-        <v>8000</v>
-      </c>
       <c r="P17" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3750</v>
+        <v>3375</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44574</v>
+        <v>44609</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O18" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P18" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44574</v>
+        <v>44917</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O19" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="P19" t="n">
-        <v>6000</v>
+        <v>7250</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3000</v>
+        <v>3625</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44216</v>
+        <v>44574</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1967,26 +1967,26 @@
         <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O20" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P20" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
         <v>3750</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S20" t="n">
-        <v>1875</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44216</v>
+        <v>44574</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2047,26 +2047,26 @@
         <v>100</v>
       </c>
       <c r="N21" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O21" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P21" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
         <v>3000</v>
-      </c>
-      <c r="O21" t="n">
-        <v>3000</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3000</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S21" t="n">
-        <v>1500</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44559</v>
+        <v>44917</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P2" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3250</v>
+        <v>3625</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44559</v>
+        <v>44532</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -600,33 +600,33 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>100</v>
       </c>
       <c r="N3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
         <v>5000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v>2500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44195</v>
+        <v>44532</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O4" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P4" t="n">
-        <v>3250</v>
+        <v>8000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1625</v>
+        <v>4000</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44195</v>
+        <v>44609</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="O5" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>2500</v>
+        <v>6750</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1250</v>
+        <v>3375</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44602</v>
+        <v>44609</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
         <v>6000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P6" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44602</v>
+        <v>44559</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O7" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44910</v>
+        <v>44559</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O8" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P8" t="n">
-        <v>7750</v>
+        <v>5000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3875</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45014</v>
+        <v>44602</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O9" t="n">
         <v>7000</v>
       </c>
-      <c r="O9" t="n">
-        <v>7500</v>
-      </c>
       <c r="P9" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3625</v>
+        <v>3250</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44617</v>
+        <v>44602</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O10" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P10" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44988</v>
+        <v>44910</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1247,13 +1247,13 @@
         <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O11" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P11" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3250</v>
+        <v>3875</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44216</v>
+        <v>44988</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1327,13 +1327,13 @@
         <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O12" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P12" t="n">
-        <v>3750</v>
+        <v>6500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1875</v>
+        <v>3250</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44216</v>
+        <v>45014</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O13" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="P13" t="n">
-        <v>3000</v>
+        <v>7250</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1500</v>
+        <v>3625</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44944</v>
+        <v>44617</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O14" t="n">
         <v>7000</v>
       </c>
-      <c r="O14" t="n">
-        <v>8000</v>
-      </c>
       <c r="P14" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44532</v>
+        <v>44195</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O15" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="P15" t="n">
-        <v>10000</v>
+        <v>3250</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>5000</v>
+        <v>1625</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44532</v>
+        <v>44195</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1647,13 +1647,13 @@
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="O16" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="P16" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>4000</v>
+        <v>1250</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44609</v>
+        <v>44944</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1727,13 +1727,13 @@
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O17" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P17" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3375</v>
+        <v>3750</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44609</v>
+        <v>44574</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O18" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P18" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44917</v>
+        <v>44574</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O19" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P19" t="n">
-        <v>7250</v>
+        <v>6000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3625</v>
+        <v>3000</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44574</v>
+        <v>44216</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1967,13 +1967,13 @@
         <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O20" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P20" t="n">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3750</v>
+        <v>1875</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44574</v>
+        <v>44216</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2047,13 +2047,13 @@
         <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O21" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="P21" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44559</v>
+        <v>44532</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3250</v>
+        <v>5000</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44559</v>
+        <v>44532</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O3" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P3" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44195</v>
+        <v>45014</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="P4" t="n">
-        <v>3250</v>
+        <v>7250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1625</v>
+        <v>3625</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44195</v>
+        <v>44609</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="O5" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>2500</v>
+        <v>6750</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1250</v>
+        <v>3375</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44602</v>
+        <v>44609</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
         <v>6000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P6" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O7" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44910</v>
+        <v>44602</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O8" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P8" t="n">
-        <v>7750</v>
+        <v>5000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3875</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45014</v>
+        <v>44910</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O9" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P9" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3625</v>
+        <v>3875</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44617</v>
+        <v>44917</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1167,13 +1167,13 @@
         <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O10" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P10" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3250</v>
+        <v>3625</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44988</v>
+        <v>44574</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1247,13 +1247,13 @@
         <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O11" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P11" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44216</v>
+        <v>44574</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O12" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P12" t="n">
-        <v>3750</v>
+        <v>6000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1875</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
         <v>3000</v>
       </c>
       <c r="O13" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P13" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1500</v>
+        <v>1625</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44944</v>
+        <v>44195</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="O14" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="P14" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3750</v>
+        <v>1250</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44532</v>
+        <v>44216</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="O15" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P15" t="n">
-        <v>10000</v>
+        <v>3750</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>5000</v>
+        <v>1875</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44532</v>
+        <v>44216</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1647,13 +1647,13 @@
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O16" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P16" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44609</v>
+        <v>44988</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="O17" t="n">
         <v>7000</v>
       </c>
       <c r="P17" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3375</v>
+        <v>3250</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44609</v>
+        <v>44617</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
         <v>6000</v>
       </c>
       <c r="O18" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P18" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44917</v>
+        <v>44944</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1884,17 +1884,17 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
         <v>7000</v>
       </c>
       <c r="O19" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P19" t="n">
         <v>7500</v>
       </c>
-      <c r="P19" t="n">
-        <v>7250</v>
-      </c>
       <c r="Q19" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3625</v>
+        <v>3750</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44574</v>
+        <v>44559</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1967,13 +1967,13 @@
         <v>200</v>
       </c>
       <c r="N20" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O20" t="n">
         <v>7000</v>
       </c>
-      <c r="O20" t="n">
-        <v>8000</v>
-      </c>
       <c r="P20" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44574</v>
+        <v>44559</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2047,13 +2047,13 @@
         <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O21" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P21" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44910</v>
+        <v>45272</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P9" t="n">
-        <v>7750</v>
+        <v>10500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3875</v>
+        <v>5250</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44917</v>
+        <v>44910</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1167,13 +1167,13 @@
         <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O10" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P10" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3625</v>
+        <v>3875</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44574</v>
+        <v>44917</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1250,10 +1250,10 @@
         <v>7000</v>
       </c>
       <c r="O11" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P11" t="n">
-        <v>7500</v>
+        <v>7250</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3750</v>
+        <v>3625</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O12" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P12" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44195</v>
+        <v>44574</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,33 +1400,33 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
         <v>3000</v>
-      </c>
-      <c r="O13" t="n">
-        <v>3500</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3250</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v>1625</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="O14" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="P14" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1250</v>
+        <v>1625</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="O15" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="P15" t="n">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1875</v>
+        <v>1250</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O16" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P16" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1500</v>
+        <v>1875</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44988</v>
+        <v>44216</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O17" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="P17" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44617</v>
+        <v>44988</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44944</v>
+        <v>44617</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O19" t="n">
         <v>7000</v>
       </c>
-      <c r="O19" t="n">
-        <v>8000</v>
-      </c>
       <c r="P19" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44559</v>
+        <v>44944</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O20" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P20" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -2040,35 +2040,115 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>200</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O21" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P21" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>3250</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="M22" t="n">
         <v>100</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N22" t="n">
         <v>5000</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O22" t="n">
         <v>5000</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P22" t="n">
         <v>5000</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>Región de Ñuble</t>
         </is>
       </c>
-      <c r="S21" t="n">
+      <c r="S22" t="n">
         <v>2500</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T22" t="n">
         <v>2</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44532</v>
+        <v>44216</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>3750</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>5000</v>
+        <v>1875</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44532</v>
+        <v>44216</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O3" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P3" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44609</v>
+        <v>44988</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="O5" t="n">
         <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3375</v>
+        <v>3250</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44609</v>
+        <v>44617</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
         <v>6000</v>
       </c>
       <c r="O6" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44602</v>
+        <v>44910</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -927,13 +927,13 @@
         <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3250</v>
+        <v>3875</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44602</v>
+        <v>44559</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O8" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45272</v>
+        <v>44559</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O9" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P9" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>5250</v>
+        <v>2500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44910</v>
+        <v>44944</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O10" t="n">
         <v>8000</v>
       </c>
       <c r="P10" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3875</v>
+        <v>3750</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44917</v>
+        <v>44602</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1247,13 +1247,13 @@
         <v>200</v>
       </c>
       <c r="N11" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O11" t="n">
         <v>7000</v>
       </c>
-      <c r="O11" t="n">
-        <v>7500</v>
-      </c>
       <c r="P11" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3625</v>
+        <v>3250</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44574</v>
+        <v>44602</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O12" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P12" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44574</v>
+        <v>44917</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O13" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="P13" t="n">
-        <v>6000</v>
+        <v>7250</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>3625</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44195</v>
+        <v>44609</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O14" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P14" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1625</v>
+        <v>3375</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44195</v>
+        <v>44609</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O15" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="P15" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1250</v>
+        <v>3000</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44216</v>
+        <v>45272</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="O16" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P16" t="n">
-        <v>3750</v>
+        <v>10500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1875</v>
+        <v>5250</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
         <v>3000</v>
       </c>
       <c r="O17" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P17" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1500</v>
+        <v>1625</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44988</v>
+        <v>44195</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="O18" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="P18" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3250</v>
+        <v>1250</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44617</v>
+        <v>44532</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O19" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P19" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3250</v>
+        <v>5000</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44944</v>
+        <v>44532</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O20" t="n">
         <v>8000</v>
       </c>
       <c r="P20" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3750</v>
+        <v>4000</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44559</v>
+        <v>44574</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2047,13 +2047,13 @@
         <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O21" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P21" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44559</v>
+        <v>44574</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -2127,13 +2127,13 @@
         <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O22" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P22" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T22" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44602</v>
+        <v>45274</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O11" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P11" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O12" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44917</v>
+        <v>44602</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O13" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P13" t="n">
-        <v>7250</v>
+        <v>5000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3625</v>
+        <v>2500</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44609</v>
+        <v>44917</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O14" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P14" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3375</v>
+        <v>3625</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O15" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P15" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3000</v>
+        <v>3375</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45272</v>
+        <v>44609</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O16" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P16" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>5250</v>
+        <v>3000</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44195</v>
+        <v>45272</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O17" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="P17" t="n">
-        <v>3250</v>
+        <v>10500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1625</v>
+        <v>5250</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="O18" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="P18" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1250</v>
+        <v>1625</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44532</v>
+        <v>44195</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="O19" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="P19" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>5000</v>
+        <v>1250</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O20" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P20" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44574</v>
+        <v>44532</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O21" t="n">
         <v>8000</v>
       </c>
       <c r="P21" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>3750</v>
+        <v>4000</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>
@@ -2120,35 +2120,115 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>200</v>
+      </c>
+      <c r="N22" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O22" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P22" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>3750</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>44574</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="M23" t="n">
         <v>100</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N23" t="n">
         <v>6000</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O23" t="n">
         <v>6000</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P23" t="n">
         <v>6000</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>Región de Ñuble</t>
         </is>
       </c>
-      <c r="S22" t="n">
+      <c r="S23" t="n">
         <v>3000</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T23" t="n">
         <v>2</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44532</v>
+        <v>45280</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N20" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O20" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P20" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O21" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P21" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44574</v>
+        <v>44532</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O22" t="n">
         <v>8000</v>
       </c>
       <c r="P22" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>3750</v>
+        <v>4000</v>
       </c>
       <c r="T22" t="n">
         <v>2</v>
@@ -2200,35 +2200,115 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>200</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O23" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P23" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>3750</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>44574</v>
+      </c>
+      <c r="E24" t="n">
+        <v>8</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="M24" t="n">
         <v>100</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N24" t="n">
         <v>6000</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O24" t="n">
         <v>6000</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P24" t="n">
         <v>6000</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>Región de Ñuble</t>
         </is>
       </c>
-      <c r="S23" t="n">
+      <c r="S24" t="n">
         <v>3000</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T24" t="n">
         <v>2</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Frambuesa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45014</v>
+        <v>45282</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="O4" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P4" t="n">
-        <v>7250</v>
+        <v>8727</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3625</v>
+        <v>4364</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44988</v>
+        <v>45014</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P5" t="n">
-        <v>6500</v>
+        <v>7250</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3250</v>
+        <v>3625</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44617</v>
+        <v>44988</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44910</v>
+        <v>44617</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -927,13 +927,13 @@
         <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3875</v>
+        <v>3250</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44559</v>
+        <v>44910</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1007,13 +1007,13 @@
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P8" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3250</v>
+        <v>3875</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O9" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44944</v>
+        <v>44559</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O10" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P10" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45274</v>
+        <v>44944</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1247,13 +1247,13 @@
         <v>100</v>
       </c>
       <c r="N11" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O11" t="n">
         <v>8000</v>
       </c>
-      <c r="O11" t="n">
-        <v>9000</v>
-      </c>
       <c r="P11" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44602</v>
+        <v>45274</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O12" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P12" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O13" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P13" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44917</v>
+        <v>44602</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O14" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P14" t="n">
-        <v>7250</v>
+        <v>5000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3625</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44609</v>
+        <v>44917</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O15" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P15" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3375</v>
+        <v>3625</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O16" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P16" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3000</v>
+        <v>3375</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45272</v>
+        <v>44609</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O17" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P17" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>5250</v>
+        <v>3000</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44195</v>
+        <v>45272</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O18" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="P18" t="n">
-        <v>3250</v>
+        <v>10500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1625</v>
+        <v>5250</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="O19" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="P19" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1250</v>
+        <v>1625</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45280</v>
+        <v>44195</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="O20" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="P20" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44532</v>
+        <v>45280</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N21" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O21" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P21" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O22" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="T22" t="n">
         <v>2</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44574</v>
+        <v>44532</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O23" t="n">
         <v>8000</v>
       </c>
       <c r="P23" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>3750</v>
+        <v>4000</v>
       </c>
       <c r="T23" t="n">
         <v>2</v>
@@ -2280,35 +2280,115 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>200</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O24" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P24" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>3750</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>44574</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="M25" t="n">
         <v>100</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N25" t="n">
         <v>6000</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O25" t="n">
         <v>6000</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P25" t="n">
         <v>6000</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>Región de Ñuble</t>
         </is>
       </c>
-      <c r="S24" t="n">
+      <c r="S25" t="n">
         <v>3000</v>
       </c>
-      <c r="T24" t="n">
+      <c r="T25" t="n">
         <v>2</v>
       </c>
     </row>
